--- a/static/files/words.xlsx
+++ b/static/files/words.xlsx
@@ -479,32 +479,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>abandoned</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>khả năng, năng lực</t>
+          <t>bị bỏ rơi, bị ruồng bỏ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/ə'biliti/</t>
+          <t>/ə'bændənd/</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44221.79275227059</v>
+        <v>44221.79241254285</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>unable</t>
+          <t>above</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>không có năng lực, không có tài</t>
+          <t>ở trên, lên trên</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/'ʌn'eibl/</t>
+          <t>/ə'bʌv/</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44221.79326213386</v>
+        <v>44221.79397003795</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>adverb
+preposition</t>
         </is>
       </c>
     </row>
@@ -547,32 +548,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abroad</t>
+          <t>able</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ở, ra nước ngoài, ngoài trời</t>
+          <t>có năng lực, có tài</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/ə'brɔ:d/</t>
+          <t>/'eibl/</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44221.79425234994</v>
+        <v>44221.79302169785</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>adverb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
@@ -581,32 +582,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abandoned</t>
+          <t>abandon</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bị bỏ rơi, bị ruồng bỏ</t>
+          <t>bỏ, từ bỏ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/ə'bændənd/</t>
+          <t>/ə'bændən/</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44221.79241254285</v>
+        <v>44221.79206970389</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
@@ -615,28 +616,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>above</t>
+          <t>about</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ở trên, lên trên</t>
+          <t>khoảng, về</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/ə'bʌv/</t>
+          <t>/ə'baut/</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44221.79397003795</v>
+        <v>44221.79360881557</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -650,32 +651,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>có năng lực, có tài</t>
+          <t>khả năng, năng lực</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/'eibl/</t>
+          <t>/ə'biliti/</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44221.79302169785</v>
+        <v>44221.79275227059</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
@@ -684,32 +685,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>abandon</t>
+          <t>unable</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bỏ, từ bỏ</t>
+          <t>không có năng lực, không có tài</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/ə'bændən/</t>
+          <t>/'ʌn'eibl/</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44221.79206970389</v>
+        <v>44221.79326213386</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
@@ -718,33 +719,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>abroad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>khoảng, về</t>
+          <t>ở, ra nước ngoài, ngoài trời</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/ə'baut/</t>
+          <t>/ə'brɔ:d/</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44221.79360881557</v>
+        <v>44221.79425234994</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>adverb
-preposition</t>
+          <t>adverb</t>
         </is>
       </c>
     </row>

--- a/static/files/words.xlsx
+++ b/static/files/words.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,326 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>vietnamese</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pronounciation</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>author_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>created_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>abandoned</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>bị bỏ rơi, bị ruồng bỏ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>/ə'bændənd/</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44221.79241254285</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>above</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ở trên, lên trên</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>/ə'bʌv/</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>44221.79397003795</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>adverb
-preposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>có năng lực, có tài</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>/'eibl/</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>44221.79302169785</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>abandon</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>bỏ, từ bỏ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>/ə'bændən/</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>44221.79206970389</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>khoảng, về</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>/ə'baut/</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>44221.79360881557</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>adverb
-preposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>khả năng, năng lực</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/ə'biliti/</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>44221.79275227059</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>không có năng lực, không có tài</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>/'ʌn'eibl/</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>44221.79326213386</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>abroad</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ở, ra nước ngoài, ngoài trời</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>/ə'brɔ:d/</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>44221.79425234994</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>adverb</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/static/files/words.xlsx
+++ b/static/files/words.xlsx
@@ -1,40 +1,670 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="198">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>vietnamese</t>
+  </si>
+  <si>
+    <t>pronounciation</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>guacamole</t>
+  </si>
+  <si>
+    <t>avocado</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>acceptable</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>accomodation</t>
+  </si>
+  <si>
+    <t>unacceptable</t>
+  </si>
+  <si>
+    <t>in concert</t>
+  </si>
+  <si>
+    <t>facet</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>scepticism</t>
+  </si>
+  <si>
+    <t>by accident</t>
+  </si>
+  <si>
+    <t>accidentally</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>with gay abandon</t>
+  </si>
+  <si>
+    <t>tonne</t>
+  </si>
+  <si>
+    <t>perspective</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>accurately</t>
+  </si>
+  <si>
+    <t>negation</t>
+  </si>
+  <si>
+    <t>accuse</t>
+  </si>
+  <si>
+    <t>instantaneous</t>
+  </si>
+  <si>
+    <t>derivative</t>
+  </si>
+  <si>
+    <t>in a nutshell</t>
+  </si>
+  <si>
+    <t>depiction</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>demystify</t>
+  </si>
+  <si>
+    <t>clump</t>
+  </si>
+  <si>
+    <t>hypotenuse</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>jagged</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <t>irrational number</t>
+  </si>
+  <si>
+    <t>rational number</t>
+  </si>
+  <si>
+    <t>workload</t>
+  </si>
+  <si>
+    <t>clinical</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>abroad</t>
+  </si>
+  <si>
+    <t>unable</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>lộng hành, lạm dụng</t>
+  </si>
+  <si>
+    <t>sốt trái bơ</t>
+  </si>
+  <si>
+    <t>trái bơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thuộc học viện, ĐH, viện hàn lâm	</t>
+  </si>
+  <si>
+    <t>trọng âm, dấu trọng âm</t>
+  </si>
+  <si>
+    <t>chấp nhận, chấp thuận</t>
+  </si>
+  <si>
+    <t>được nêu ra, được báo cáo bởi ai/cái gì</t>
+  </si>
+  <si>
+    <t>có thể chấp nhận, chấp thuận</t>
+  </si>
+  <si>
+    <t>đi cùng với ai đó hoặc cái gì đó</t>
+  </si>
+  <si>
+    <t>nơi để ở, nơi ở cung cấp thức ăn dịch vụ, quá trình thỏa thuận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">không thể chấp nhận	</t>
+  </si>
+  <si>
+    <t>buổi hòa nhạc / cùng nhau</t>
+  </si>
+  <si>
+    <t>Khía cạnh</t>
+  </si>
+  <si>
+    <t>lối, cửa, đường vào</t>
+  </si>
+  <si>
+    <t>tai nạn, rủi ro</t>
+  </si>
+  <si>
+    <t>linh hoạt</t>
+  </si>
+  <si>
+    <t>hoài nghi</t>
+  </si>
+  <si>
+    <t>vô tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tình cờ, ngẫu nhiên	</t>
+  </si>
+  <si>
+    <t>sự thích nghi, điều tiết</t>
+  </si>
+  <si>
+    <t>theo, y theo</t>
+  </si>
+  <si>
+    <t>tài khoản, kế toán; tính toán, tính đến</t>
+  </si>
+  <si>
+    <t>mà không nghĩ về hậu quả hay ảnh hưởng của một hành động cụ thể nào đó</t>
+  </si>
+  <si>
+    <t>Tấn</t>
+  </si>
+  <si>
+    <t>góc nhìn cá nhân</t>
+  </si>
+  <si>
+    <t>đúng đắn, chính xác, xác đáng</t>
+  </si>
+  <si>
+    <t>/'ækjuritli/</t>
+  </si>
+  <si>
+    <t>phủ định</t>
+  </si>
+  <si>
+    <t>tố cáo, buộc tội, kết tội</t>
+  </si>
+  <si>
+    <t>tức thời</t>
+  </si>
+  <si>
+    <t>đạo hàm</t>
+  </si>
+  <si>
+    <t>tóm lại</t>
+  </si>
+  <si>
+    <t>sự miêu tả</t>
+  </si>
+  <si>
+    <t>chặn lại</t>
+  </si>
+  <si>
+    <t>làm cho thứ gì đó dễ hiểu hơn</t>
+  </si>
+  <si>
+    <t>một cục, một nhóm, khối rắn, vón cục</t>
+  </si>
+  <si>
+    <t>cạnh huyền của tam giác vuông</t>
+  </si>
+  <si>
+    <t>hình nộm</t>
+  </si>
+  <si>
+    <t>răng cưa</t>
+  </si>
+  <si>
+    <t>đồng hành</t>
+  </si>
+  <si>
+    <t>số vô tỉ</t>
+  </si>
+  <si>
+    <t>số hữu tỉ</t>
+  </si>
+  <si>
+    <t>Khối lượng công việc</t>
+  </si>
+  <si>
+    <t>lâm sàng</t>
+  </si>
+  <si>
+    <t>tỷ trọng</t>
+  </si>
+  <si>
+    <t>toàn diện</t>
+  </si>
+  <si>
+    <t>đội quân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khoảng, về	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bỏ, từ bỏ	</t>
+  </si>
+  <si>
+    <t>có năng lực, có tài</t>
+  </si>
+  <si>
+    <t>ở trên, lên trên</t>
+  </si>
+  <si>
+    <t>bị bỏ rơi, bị ruồng bỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ở, ra nước ngoài, ngoài trời	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">không có năng lực, không có tài	</t>
+  </si>
+  <si>
+    <t>khả năng, năng lực</t>
+  </si>
+  <si>
+    <t>sự vắng mặt</t>
+  </si>
+  <si>
+    <t>vắng mặt, nghỉ</t>
+  </si>
+  <si>
+    <t>tuyệt đối, hoàn toàn</t>
+  </si>
+  <si>
+    <t>thu hút, hấp thu, lôi cuốn</t>
+  </si>
+  <si>
+    <t>/ə'bju:s/</t>
+  </si>
+  <si>
+    <t>/,ækə'demik/</t>
+  </si>
+  <si>
+    <t>/'æksənt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ək'sept/	</t>
+  </si>
+  <si>
+    <t>/ək'septəbl/</t>
+  </si>
+  <si>
+    <t>/ə'kʌmpəni/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'ʌnək'septəbl/	</t>
+  </si>
+  <si>
+    <t>/ˈfæsɪt/</t>
+  </si>
+  <si>
+    <t>/'ækses/</t>
+  </si>
+  <si>
+    <t>/'æksidənt/</t>
+  </si>
+  <si>
+    <t>/ˈvɜːrsətl/</t>
+  </si>
+  <si>
+    <t>/ˈskeptɪsɪzəm/</t>
+  </si>
+  <si>
+    <t>/baɪ/ /ˈæksɪdənt/</t>
+  </si>
+  <si>
+    <t>/,æksi'dentəli/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ə,kɔmə'deiʃn/	</t>
+  </si>
+  <si>
+    <t>/ə'kɔ:diɳ/</t>
+  </si>
+  <si>
+    <t>/ə'kaunt/</t>
+  </si>
+  <si>
+    <t>/tʌn/</t>
+  </si>
+  <si>
+    <t>/pərˈspektɪv/</t>
+  </si>
+  <si>
+    <t>/'ækjurit/</t>
+  </si>
+  <si>
+    <t>đúng đắn, chính xác</t>
+  </si>
+  <si>
+    <t>/nɪˈɡeɪʃn/</t>
+  </si>
+  <si>
+    <t>/ə'kju:z/</t>
+  </si>
+  <si>
+    <t>/ˌɪnstənˈteɪniəs/</t>
+  </si>
+  <si>
+    <t>/dɪˈrɪvətɪv/</t>
+  </si>
+  <si>
+    <t>/ˈnʌtʃel/</t>
+  </si>
+  <si>
+    <t>/dɪˈpɪkʃn/</t>
+  </si>
+  <si>
+    <t>/ˌɪntərˈsept/</t>
+  </si>
+  <si>
+    <t>/ˌdiːˈmɪs.tə.faɪ/</t>
+  </si>
+  <si>
+    <t>/klʌmp/</t>
+  </si>
+  <si>
+    <t>/haɪˈpɑːtənuːs/</t>
+  </si>
+  <si>
+    <t>/ˈdʌm.i/</t>
+  </si>
+  <si>
+    <t>/ˈdʒæɡ.ɪd/</t>
+  </si>
+  <si>
+    <t>/kəmˈpænjən/</t>
+  </si>
+  <si>
+    <t>/ˈwərkˌlōd/</t>
+  </si>
+  <si>
+    <t>/ˈklɪnɪkl/</t>
+  </si>
+  <si>
+    <t>/prəˈpɔːrʃn/</t>
+  </si>
+  <si>
+    <t>/ˌkɑːmprɪˈhensɪv/</t>
+  </si>
+  <si>
+    <t>/ˈkəʊhɔːrt/</t>
+  </si>
+  <si>
+    <t>/ə'baut/</t>
+  </si>
+  <si>
+    <t>/ə'bændən/</t>
+  </si>
+  <si>
+    <t>/'eibl/</t>
+  </si>
+  <si>
+    <t>/ə'bʌv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ə'bændənd/	</t>
+  </si>
+  <si>
+    <t>/ə'brɔ:d/</t>
+  </si>
+  <si>
+    <t>/'ʌn'eibl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ə'biliti/	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'æbsəns/	</t>
+  </si>
+  <si>
+    <t>/'æbsənt/</t>
+  </si>
+  <si>
+    <t>/'æbsəlu:t/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'æbsəlu:tli/	</t>
+  </si>
+  <si>
+    <t>/əb'sɔ:b/</t>
+  </si>
+  <si>
+    <t>noun_x000D_
+verb</t>
+  </si>
+  <si>
+    <t>Guacamole là món xốt làm từ bơ xay nhuyễn hoặc chế biến dạng salad, có thể kèm theo cà chua, hành tây hay ớt chuông. Món này được chế biến lần đầu tiên bởi người Aztec. Đây là đồ ăn kèm thường thấy trong ẩm thực México và Mỹ, được dùng làm xốt chấm hay phụ gia</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>preposition_x000D_
+- as stated or reported by somebody/something_x000D_
+- following, agreeing with or depending on something</t>
+  </si>
+  <si>
+    <t>verb_x000D_
+- to travel or go somewhere with sombody or something_x000D_
+- to happen or appear with something else_x000D_
+- to play a musical instrument, especially piano. While somebody else sings or play a main tune</t>
+  </si>
+  <si>
+    <t>noun_x000D_
+- a place to live, work or stay in_x000D_
+- a place to live or work, provding food or services_x000D_
+- an agreement or arrangement between people with different opinions that is acceptable for everyone. The process of reaching this agreement</t>
+  </si>
+  <si>
+    <t>idioms meaning: together, cooperation</t>
+  </si>
+  <si>
+    <t>- We met by accident at the airport._x000D_
+- Helen got into acting purely by accident._x000D_
+- It happened, whether by accident or design, that Steve and I were the last two people to leave.</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>idom_x000D_
+without thinking about the results or effects of a particular action</t>
+  </si>
+  <si>
+    <t>noun_x000D_
+- [countable] a particular attitude towards something; a way of thinking about something_x000D_
+- [uncountable] the ability to think about problems and decisions in a reasonable way without making them seem worse or more important than they really are</t>
+  </si>
+  <si>
+    <t>adjective_x000D_
+- in a way that is correct and true in every detail_x000D_
+- in an exact way_x000D_
+- hitting or reaching the thing that was aimed at</t>
+  </si>
+  <si>
+    <t>adverb_x000D_
+(to say or express something) in a very clear way, using few words</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>(adjective)_x000D_
+- relating to the examination and treatment of patients and their illnesses</t>
+  </si>
+  <si>
+    <t>adverb_x000D_
+preposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verb_x000D_
+- to leave somebody, especially somebody you are responsible for, with no intention of returning_x000D_
+- </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +672,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,19 +990,1596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44223.3361039625</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44315.18610751032</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44315.18583541706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44223.33586622172</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44223.33567487447</v>
+      </c>
+      <c r="H6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44223.33551065205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44251.34789236658</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44223.33534831927</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44247.70335430941</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44247.68609303428</v>
+      </c>
+      <c r="H11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44223.3351790203</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44247.63474372865</v>
+      </c>
+      <c r="H13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44246.21320526286</v>
+      </c>
+      <c r="H14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44223.33498796797</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44223.33483297389</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44245.29660810905</v>
+      </c>
+      <c r="H17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44245.2930515216</v>
+      </c>
+      <c r="H18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44223.33458923759</v>
+      </c>
+      <c r="H19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44223.33410485236</v>
+      </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44223.33224551917</v>
+      </c>
+      <c r="H21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44223.33132115666</v>
+      </c>
+      <c r="H22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44223.33113613514</v>
+      </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44233.07362052635</v>
+      </c>
+      <c r="H24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44233.06789443945</v>
+      </c>
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44231.21979599977</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44223.33007735525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44223.32949525298</v>
+      </c>
+      <c r="H28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44229.59782652191</v>
+      </c>
+      <c r="H29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44223.32494476609</v>
+      </c>
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44228.25525442286</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44228.25113697266</v>
+      </c>
+      <c r="H32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>44227.33685560594</v>
+      </c>
+      <c r="H33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44227.16266829471</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44226.64202870566</v>
+      </c>
+      <c r="H35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44226.62032673719</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44226.61349867078</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44226.60422402847</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44226.28317349622</v>
+      </c>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44226.28049387309</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>44226.24496412629</v>
+      </c>
+      <c r="H41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>44225.2491115251</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>44225.24669273546</v>
+      </c>
+      <c r="H43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44225.08276381002</v>
+      </c>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44224.50308188345</v>
+      </c>
+      <c r="H45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>44224.49931533854</v>
+      </c>
+      <c r="H46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44224.38839353299</v>
+      </c>
+      <c r="H47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44224.38623635077</v>
+      </c>
+      <c r="H48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44223.33826629155</v>
+      </c>
+      <c r="H49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44223.3380310419</v>
+      </c>
+      <c r="H50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>44223.33789339389</v>
+      </c>
+      <c r="H51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44223.33768288983</v>
+      </c>
+      <c r="H52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>44223.33743041013</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>44223.33725880258</v>
+      </c>
+      <c r="H54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44223.33711180102</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>44223.33710933969</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44223.33695535355</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44223.33682398652</v>
+      </c>
+      <c r="H58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44223.33668492306</v>
+      </c>
+      <c r="H59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>44223.33654260274</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>44223.33640713405</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>44223.33626118303</v>
+      </c>
+      <c r="H62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>